--- a/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
+++ b/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Balance Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,9 +40,6 @@
     <t>Spring Period</t>
   </si>
   <si>
-    <t>Sales revenue</t>
-  </si>
-  <si>
     <t>Service Revenue</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Software Modules</t>
+  </si>
+  <si>
+    <t>Sales Revenue</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -752,132 +752,132 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="11">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="11">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="11">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="11">
         <v>45000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="11">
         <f>((C11/100)*16.86)/2</f>
         <v>3793.5</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="16" spans="1:8" ht="60">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
@@ -913,33 +913,33 @@
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="11">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="11">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -963,14 +963,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11">
         <f>C11+C19</f>
         <v>45000</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" s="11">
         <f>G11+G16+G21</f>
@@ -995,7 +995,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1036,7 +1036,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D5" s="14">
         <f>3000+2500</f>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="14">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="14">
         <v>0</v>
@@ -1079,25 +1079,25 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="E8" s="14">
         <v>0</v>
       </c>
       <c r="F8" s="14">
-        <v>0</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="14">
         <f>SUM(D5:D8)</f>
-        <v>5500</v>
+        <v>29500</v>
       </c>
       <c r="E9" s="14">
         <f t="shared" ref="E9:F9" si="0">SUM(E5:E8)</f>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1115,7 +1115,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="14">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="14">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="14">
         <v>0</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="14">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="14">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="14">
         <v>0</v>
@@ -1207,10 +1207,11 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="14">
-        <v>0</v>
+        <f>((D8/100)*16.86)/5</f>
+        <v>809.28</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
@@ -1221,7 +1222,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="14">
         <v>0</v>
@@ -1235,7 +1236,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="14">
         <v>0</v>
@@ -1249,7 +1250,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="14">
         <f>2530.8+1898.1+1898.1</f>
@@ -1265,7 +1266,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="14">
         <v>0</v>
@@ -1279,7 +1280,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="19">
         <v>12196.5</v>
@@ -1293,7 +1294,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="14">
         <f>2800+2700</f>
@@ -1308,7 +1309,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -1322,7 +1323,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="14">
         <f>900+450</f>
@@ -1337,7 +1338,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="14">
         <v>14.5</v>
@@ -1351,7 +1352,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="14">
         <v>0</v>
@@ -1365,11 +1366,11 @@
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="14">
         <f>SUM(D12:D28)</f>
-        <v>25388</v>
+        <v>26197.279999999999</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" ref="E29:F29" si="1">SUM(E12:E28)</f>
@@ -1387,7 +1388,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -1401,7 +1402,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="14">
         <v>0</v>
@@ -1415,11 +1416,11 @@
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" s="14">
         <f>D9-D29</f>
-        <v>-19888</v>
+        <v>3302.7200000000012</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" ref="E33:F33" si="2">E9-E29</f>
@@ -1427,7 +1428,7 @@
       </c>
       <c r="F33" s="14">
         <f t="shared" si="2"/>
-        <v>-7344.3</v>
+        <v>13655.7</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
+++ b/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="0" windowWidth="14360" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Spoon</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Accounts payable</t>
   </si>
   <si>
-    <t>Short-term notes</t>
-  </si>
-  <si>
     <t>Interest payable</t>
   </si>
   <si>
@@ -214,30 +211,15 @@
     <t>Buildings</t>
   </si>
   <si>
-    <t>Our company doesn’t provide any extra equipment</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>Overheads include infrastructure rent that is paid at regular intevals. (See Buisness Plan)</t>
-  </si>
-  <si>
     <t>16.86% APR</t>
   </si>
   <si>
-    <t>Loan received = £45,000.00</t>
-  </si>
-  <si>
     <t>Comes with infrastructure rental</t>
   </si>
   <si>
-    <t>Total labour cost***</t>
-  </si>
-  <si>
-    <t>plus the above!</t>
-  </si>
-  <si>
     <t>Jan 06th 2014 - May 30th 2014</t>
   </si>
   <si>
@@ -248,13 +230,17 @@
   </si>
   <si>
     <t>Sales Revenue</t>
+  </si>
+  <si>
+    <t>Overheads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -315,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -360,11 +346,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -376,12 +384,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,6 +395,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -737,7 +747,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -746,7 +756,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>41786</v>
       </c>
     </row>
@@ -774,56 +784,62 @@
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>68</v>
+      <c r="C6" s="21">
+        <v>45000</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM('Income Statement'!D26:F26)+SUM('Income Statement'!D21:F21)</f>
+        <v>15021.3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="20">
+        <f>((C11/100)*16.86)*(21/52)</f>
+        <v>3063.9807692307695</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -831,33 +847,32 @@
         <v>38</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>70</v>
+        <v>51</v>
+      </c>
+      <c r="G10" s="19">
+        <f>SUM('Income Statement'!D23:F23)</f>
+        <v>22996.25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>45000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="11">
-        <f>((C11/100)*16.86)/2</f>
-        <v>3793.5</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>71</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G11" s="10">
+        <f>G8+G10+G7</f>
+        <v>41081.530769230769</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -865,7 +880,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -874,12 +889,12 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="13">
+        <v>54</v>
+      </c>
+      <c r="G14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -888,35 +903,35 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30">
+        <v>55</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -924,10 +939,10 @@
         <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -935,29 +950,29 @@
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="13">
+        <v>57</v>
+      </c>
+      <c r="G19" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="11">
+        <v>58</v>
+      </c>
+      <c r="G20" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="F21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="11">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10">
         <v>0</v>
       </c>
     </row>
@@ -965,20 +980,20 @@
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f>C11+C19</f>
         <v>45000</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="11">
+        <v>60</v>
+      </c>
+      <c r="G22" s="10">
         <f>G11+G16+G21</f>
-        <v>3793.5</v>
+        <v>41081.530769230769</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="G23" s="14"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -994,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1008,7 +1023,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1017,7 +1032,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1036,16 +1051,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14">
+        <v>69</v>
+      </c>
+      <c r="D5" s="12">
         <f>3000+2500</f>
         <v>5500</v>
       </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1053,13 +1068,13 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1067,13 +1082,13 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1081,13 +1096,13 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>24000</v>
       </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <v>21000</v>
       </c>
     </row>
@@ -1095,43 +1110,43 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <f>SUM(D5:D8)</f>
         <v>29500</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <f t="shared" ref="E9:F9" si="0">SUM(E5:E8)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1139,13 +1154,13 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1153,13 +1168,13 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1167,13 +1182,13 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1181,13 +1196,13 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="14">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1195,42 +1210,44 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="14">
-        <f>((D8/100)*16.86)/5</f>
-        <v>809.28</v>
-      </c>
-      <c r="E18" s="14">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>0</v>
+      <c r="D18" s="12">
+        <f>((D8/100)*16.86)*(10/52)</f>
+        <v>778.15384615384608</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18" si="1">((E8/100)*16.86)*(10/52)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <f>((F8/100)*16.86)*(6/52)</f>
+        <v>408.53076923076924</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1238,13 +1255,13 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1252,14 +1269,14 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <f>2530.8+1898.1+1898.1</f>
         <v>6327</v>
       </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
         <f>5694.3</f>
         <v>5694.3</v>
       </c>
@@ -1268,13 +1285,13 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1282,28 +1299,28 @@
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>12196.5</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>4799.75</v>
       </c>
-      <c r="F23" s="17">
-        <v>0</v>
+      <c r="F23" s="15">
+        <v>6000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="14">
+        <v>68</v>
+      </c>
+      <c r="D24" s="12">
         <f>2800+2700</f>
         <v>5500</v>
       </c>
-      <c r="E24" s="14">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1311,42 +1328,42 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="14">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12">
         <f>900+450</f>
         <v>1350</v>
       </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
         <v>1650</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>14.5</v>
       </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1354,13 +1371,13 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="14">
-        <v>0</v>
-      </c>
-      <c r="E28" s="14">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1368,35 +1385,35 @@
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <f>SUM(D12:D28)</f>
-        <v>26197.279999999999</v>
-      </c>
-      <c r="E29" s="14">
-        <f t="shared" ref="E29:F29" si="1">SUM(E12:E28)</f>
+        <v>26166.153846153844</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" ref="E29:F29" si="2">SUM(E12:E28)</f>
         <v>4799.75</v>
       </c>
-      <c r="F29" s="14">
-        <f t="shared" si="1"/>
-        <v>7344.3</v>
+      <c r="F29" s="12">
+        <f t="shared" si="2"/>
+        <v>13752.83076923077</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="14">
-        <v>0</v>
-      </c>
-      <c r="E31" s="14">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14">
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1404,13 +1421,13 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="14">
-        <v>0</v>
-      </c>
-      <c r="E32" s="14">
-        <v>0</v>
-      </c>
-      <c r="F32" s="14">
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1418,17 +1435,17 @@
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <f>D9-D29</f>
-        <v>3302.7200000000012</v>
-      </c>
-      <c r="E33" s="14">
-        <f t="shared" ref="E33:F33" si="2">E9-E29</f>
+        <v>3333.8461538461561</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" ref="E33:F33" si="3">E9-E29</f>
         <v>-4799.75</v>
       </c>
-      <c r="F33" s="14">
-        <f t="shared" si="2"/>
-        <v>13655.7</v>
+      <c r="F33" s="12">
+        <f t="shared" si="3"/>
+        <v>7247.1692307692301</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
+++ b/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="14360" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Spoon</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Equipment</t>
   </si>
   <si>
-    <t>Furniture</t>
-  </si>
-  <si>
     <t>Total Fixed Assets</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>16.86% APR</t>
-  </si>
-  <si>
-    <t>Comes with infrastructure rental</t>
   </si>
   <si>
     <t>Jan 06th 2014 - May 30th 2014</t>
@@ -301,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -368,11 +362,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -392,13 +410,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -776,7 +798,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -784,14 +806,14 @@
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>45000</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -802,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="10">
         <f>SUM('Income Statement'!D26:F26)+SUM('Income Statement'!D21:F21)</f>
@@ -817,15 +839,15 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="20">
+        <v>48</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19">
         <f>((C11/100)*16.86)*(21/52)</f>
         <v>3063.9807692307695</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -836,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -851,22 +873,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="19">
+        <v>50</v>
+      </c>
+      <c r="G10" s="18">
         <f>SUM('Income Statement'!D23:F23)</f>
         <v>22996.25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10">
         <v>45000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10">
         <f>G8+G10+G7</f>
@@ -880,7 +902,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -889,10 +911,10 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -903,7 +925,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -914,13 +936,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
@@ -930,31 +952,26 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
+      <c r="C17" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="C18" s="22"/>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="10">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -962,7 +979,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -970,7 +987,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -985,7 +1002,7 @@
         <v>45000</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="10">
         <f>G11+G16+G21</f>
@@ -1007,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1032,7 +1049,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1051,7 +1068,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="12">
         <f>3000+2500</f>
@@ -1299,19 +1316,19 @@
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>12196.5</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>4799.75</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="23">
         <v>6000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="12">
         <f>2800+2700</f>
@@ -1339,8 +1356,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16" t="s">
-        <v>67</v>
+      <c r="A26" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D26" s="12">
         <f>900+450</f>
@@ -1354,7 +1371,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="12">
@@ -1431,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:8">
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,6 +1463,12 @@
       <c r="F33" s="12">
         <f t="shared" si="3"/>
         <v>7247.1692307692301</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="H35" s="12">
+        <f>F33+D33+E33</f>
+        <v>5781.2653846153862</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
+++ b/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="14360" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet" sheetId="2" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>Spoon</t>
   </si>
   <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>Overheads</t>
+  </si>
+  <si>
+    <t>Income Statement (Cashflow)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -784,47 +784,47 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="20">
         <v>45000</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="10">
         <f>SUM('Income Statement'!D26:F26)+SUM('Income Statement'!D21:F21)</f>
@@ -833,13 +833,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="19">
@@ -847,33 +847,33 @@
         <v>3063.9807692307695</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="18">
         <f>SUM('Income Statement'!D23:F23)</f>
@@ -882,13 +882,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10">
         <v>45000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="10">
         <f>G8+G10+G7</f>
@@ -898,23 +898,23 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -936,13 +936,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="10">
         <v>0</v>
@@ -950,28 +950,28 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="C18" s="22"/>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="11">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -995,14 +995,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10">
         <f>C11+C19</f>
         <v>45000</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="10">
         <f>G11+G16+G21</f>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1044,31 +1044,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="12">
         <f>3000+2500</f>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="12">
         <v>24000</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D5:D8)</f>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="12">
         <f>((D8/100)*16.86)*(10/52)</f>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12">
         <f>2530.8+1898.1+1898.1</f>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="16">
         <v>12196.5</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="12">
         <f>2800+2700</f>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="12">
         <f>900+450</f>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="12">
         <v>14.5</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="12">
         <f>SUM(D12:D28)</f>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="12">
         <v>0</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="12">
         <f>D9-D29</f>

--- a/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
+++ b/Documents/Finance/Financial Summary Report/FINANCE_SUMMARY.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Sheet" sheetId="2" r:id="rId1"/>
     <sheet name="Income Statement" sheetId="1" r:id="rId2"/>
+    <sheet name="Product Pricing Methodology" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,11 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="98">
   <si>
     <t>Spoon</t>
   </si>
   <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -136,9 +140,6 @@
     <t>Prepaid expenses</t>
   </si>
   <si>
-    <t>Total Assets</t>
-  </si>
-  <si>
     <t>Fixed Assets</t>
   </si>
   <si>
@@ -226,18 +227,107 @@
     <t>Overheads</t>
   </si>
   <si>
-    <t>Income Statement (Cashflow)</t>
+    <t>Total Assets Equity</t>
+  </si>
+  <si>
+    <t>remaining money from loan</t>
+  </si>
+  <si>
+    <t>direct costs</t>
+  </si>
+  <si>
+    <t>variable costs</t>
+  </si>
+  <si>
+    <t>total production cost</t>
+  </si>
+  <si>
+    <t>total distribution cost</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>sales to break even</t>
+  </si>
+  <si>
+    <t>predicted sales ratio</t>
+  </si>
+  <si>
+    <t>predicted sales at price</t>
+  </si>
+  <si>
+    <t>product cost</t>
+  </si>
+  <si>
+    <t>total sales</t>
+  </si>
+  <si>
+    <t>sales to breakeven</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>total money</t>
+  </si>
+  <si>
+    <t>profit margin</t>
+  </si>
+  <si>
+    <t>total sales to breakeven</t>
+  </si>
+  <si>
+    <t>students in uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell to 5% </t>
+  </si>
+  <si>
+    <t>extra sales required</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>interest per month after project</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>total sales revenue</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>money owed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00;[Red]&quot;£&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,8 +370,39 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +415,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -386,11 +519,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -421,8 +674,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,7 +1053,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -773,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -784,17 +1082,17 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4"/>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="1" t="s">
@@ -804,21 +1102,21 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="20">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>61</v>
+      <c r="G6" s="11">
+        <v>45000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -833,7 +1131,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -844,7 +1142,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="19">
         <f>((C11/100)*16.86)*(21/52)</f>
-        <v>3063.9807692307695</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>62</v>
@@ -852,7 +1150,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
@@ -866,7 +1164,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="10">
@@ -877,7 +1175,7 @@
       </c>
       <c r="G10" s="18">
         <f>SUM('Income Statement'!D23:F23)</f>
-        <v>22996.25</v>
+        <v>23865</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -885,14 +1183,15 @@
         <v>44</v>
       </c>
       <c r="C11" s="10">
-        <v>45000</v>
+        <f>SUM(C6:C10)</f>
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="10">
-        <f>G8+G10+G7</f>
-        <v>41081.530769230769</v>
+        <f>G8+G10+G7+G6</f>
+        <v>83886.3</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -928,7 +1227,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -995,18 +1294,18 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C22" s="10">
         <f>C11+C19</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10">
         <f>G11+G16+G21</f>
-        <v>41081.530769230769</v>
+        <v>83886.3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1024,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1037,6 +1336,8 @@
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25">
@@ -1044,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1054,16 +1355,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1083,7 +1384,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1097,7 +1398,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
@@ -1111,7 +1412,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="12">
         <v>24000</v>
@@ -1125,7 +1426,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D5:D8)</f>
@@ -1147,7 +1448,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1155,7 +1456,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -1169,7 +1470,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="12">
         <v>0</v>
@@ -1183,7 +1484,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="12">
         <v>0</v>
@@ -1197,7 +1498,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="12">
         <v>0</v>
@@ -1211,7 +1512,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -1223,9 +1524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -1236,27 +1537,34 @@
       <c r="F17" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="12">
-        <f>((D8/100)*16.86)*(10/52)</f>
-        <v>778.15384615384608</v>
+        <f>D8*(16.86/100)*(10/52)</f>
+        <v>778.15384615384619</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" ref="E18" si="1">((E8/100)*16.86)*(10/52)</f>
-        <v>0</v>
+        <f>((D8/100)*16.86)*(5/52)</f>
+        <v>389.07692307692304</v>
       </c>
       <c r="F18" s="12">
-        <f>((F8/100)*16.86)*(6/52)</f>
-        <v>408.53076923076924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f>(F8+D8)*(16.86/100)*(6/52)</f>
+        <v>875.42307692307702</v>
+      </c>
+      <c r="I18">
+        <f>45000*(16.86/100)*(1/12)</f>
+        <v>632.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
@@ -1267,10 +1575,15 @@
       <c r="F19" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19">
+        <f>I18/5.5</f>
+        <v>114.95454545454545</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="12">
         <v>0</v>
@@ -1282,9 +1595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="12">
         <f>2530.8+1898.1+1898.1</f>
@@ -1298,23 +1611,23 @@
         <v>5694.3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
       </c>
       <c r="E22" s="12">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F22" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="16">
         <v>12196.5</v>
@@ -1323,10 +1636,10 @@
         <v>4799.75</v>
       </c>
       <c r="F23" s="23">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>6868.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1341,9 +1654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -1355,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="A26" s="15" t="s">
         <v>64</v>
       </c>
@@ -1370,9 +1683,9 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10">
       <c r="A27" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" s="12">
         <v>14.5</v>
@@ -1384,9 +1697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="12">
         <v>0</v>
@@ -1398,31 +1711,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:10">
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="12">
         <f>SUM(D12:D28)</f>
         <v>26166.153846153844</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" ref="E29:F29" si="2">SUM(E12:E28)</f>
-        <v>4799.75</v>
+        <f t="shared" ref="E29:F29" si="1">SUM(E12:E28)</f>
+        <v>5788.8269230769229</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="2"/>
-        <v>13752.83076923077</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>15088.473076923077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="12">
         <v>0</v>
@@ -1434,9 +1747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="12">
         <v>0</v>
@@ -1450,25 +1763,28 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="12">
         <f>D9-D29</f>
         <v>3333.8461538461561</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" ref="E33:F33" si="3">E9-E29</f>
-        <v>-4799.75</v>
+        <f t="shared" ref="E33:F33" si="2">E9-E29</f>
+        <v>-5788.8269230769229</v>
       </c>
       <c r="F33" s="12">
-        <f t="shared" si="3"/>
-        <v>7247.1692307692301</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8">
+        <f t="shared" si="2"/>
+        <v>5911.5269230769227</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="30">
+      <c r="G35" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="H35" s="12">
         <f>F33+D33+E33</f>
-        <v>5781.2653846153862</v>
+        <v>3456.5461538461559</v>
       </c>
     </row>
   </sheetData>
@@ -1479,4 +1795,1013 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="27">
+        <v>20017.5</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>28939.5</v>
+      </c>
+      <c r="C4" s="41">
+        <f>21000*(16.86/100)*(2/52)</f>
+        <v>136.17692307692309</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="27">
+        <f>B3+B4+C4</f>
+        <v>49093.176923076921</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="28">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="30">
+        <f>B5+B6</f>
+        <v>59093.176923076921</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="34">
+        <v>2</v>
+      </c>
+      <c r="C11" s="32">
+        <f>B8/B11</f>
+        <v>29546.58846153846</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="35">
+        <f>C11*D11</f>
+        <v>29546.58846153846</v>
+      </c>
+      <c r="F11" s="35">
+        <f>C11-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="32"/>
+      <c r="B12" s="34">
+        <v>3</v>
+      </c>
+      <c r="C12" s="32">
+        <f>B8/B12</f>
+        <v>19697.725641025641</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0.72727272700000001</v>
+      </c>
+      <c r="E12" s="35">
+        <f t="shared" ref="E12:E15" si="0">C12*D12</f>
+        <v>14325.618642646541</v>
+      </c>
+      <c r="F12" s="35">
+        <f t="shared" ref="F12:F15" si="1">C12-E12</f>
+        <v>5372.1069983791003</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="32"/>
+      <c r="B13" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="C13" s="32">
+        <f>B8/B13</f>
+        <v>10744.213986013985</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="0"/>
+        <v>5372.1069930069925</v>
+      </c>
+      <c r="F13" s="35">
+        <f t="shared" si="1"/>
+        <v>5372.1069930069925</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="32"/>
+      <c r="B14" s="34">
+        <v>7</v>
+      </c>
+      <c r="C14" s="32">
+        <f>B8/B14</f>
+        <v>8441.8824175824175</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.22727272700000001</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="0"/>
+        <v>1918.6096380573088</v>
+      </c>
+      <c r="F14" s="35">
+        <f t="shared" si="1"/>
+        <v>6523.2727795251085</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="32"/>
+      <c r="B15" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="C15" s="32">
+        <f>B8/B15</f>
+        <v>5915.2329252329246</v>
+      </c>
+      <c r="D15" s="32">
+        <v>9.0909090999999997E-2</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="0"/>
+        <v>537.74844828619609</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="1"/>
+        <v>5377.4844769467281</v>
+      </c>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="34">
+        <v>2</v>
+      </c>
+      <c r="F17" s="34">
+        <v>3</v>
+      </c>
+      <c r="G17" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="H17" s="34">
+        <v>7</v>
+      </c>
+      <c r="I17" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="40">
+        <f>E11+F11</f>
+        <v>29546.58846153846</v>
+      </c>
+      <c r="F18" s="40">
+        <f>E12+F12</f>
+        <v>19697.725641025641</v>
+      </c>
+      <c r="G18" s="40">
+        <f>E13+F13</f>
+        <v>10744.213986013985</v>
+      </c>
+      <c r="H18" s="40">
+        <f>E14+F14</f>
+        <v>8441.8824175824175</v>
+      </c>
+      <c r="I18" s="40">
+        <f>E15+F15</f>
+        <v>5915.2329252329246</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="37">
+        <v>2</v>
+      </c>
+      <c r="F21" s="37">
+        <v>3</v>
+      </c>
+      <c r="G21" s="38">
+        <v>5.5</v>
+      </c>
+      <c r="H21" s="37">
+        <v>7</v>
+      </c>
+      <c r="I21" s="38">
+        <v>9.99</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="C22" s="38">
+        <f>B22*B8</f>
+        <v>1181.8635384615384</v>
+      </c>
+      <c r="D22" s="38">
+        <f>B8+C22</f>
+        <v>60275.040461538461</v>
+      </c>
+      <c r="E22" s="35">
+        <f>D22/2</f>
+        <v>30137.520230769231</v>
+      </c>
+      <c r="F22" s="35">
+        <f>D22/3</f>
+        <v>20091.680153846155</v>
+      </c>
+      <c r="G22" s="35">
+        <f>D22/5.5</f>
+        <v>10959.098265734267</v>
+      </c>
+      <c r="H22" s="35">
+        <f>D22/7</f>
+        <v>8610.7200659340651</v>
+      </c>
+      <c r="I22" s="35">
+        <f>D22/9.99</f>
+        <v>6033.5375837375832</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="32"/>
+      <c r="B23" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="C23" s="38">
+        <f>B23*B8</f>
+        <v>2954.6588461538463</v>
+      </c>
+      <c r="D23" s="38">
+        <f>B8+C23</f>
+        <v>62047.835769230769</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" ref="E23:E25" si="2">D23/2</f>
+        <v>31023.917884615385</v>
+      </c>
+      <c r="F23" s="35">
+        <f t="shared" ref="F23:F25" si="3">D23/3</f>
+        <v>20682.611923076922</v>
+      </c>
+      <c r="G23" s="35">
+        <f t="shared" ref="G23:G24" si="4">D23/5.5</f>
+        <v>11281.424685314685</v>
+      </c>
+      <c r="H23" s="35">
+        <f t="shared" ref="H23:H25" si="5">D23/7</f>
+        <v>8863.9765384615384</v>
+      </c>
+      <c r="I23" s="35">
+        <f t="shared" ref="I23:I25" si="6">D23/9.99</f>
+        <v>6210.9945714945716</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="32"/>
+      <c r="B24" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="38">
+        <f>B24*B8</f>
+        <v>5909.3176923076926</v>
+      </c>
+      <c r="D24" s="38">
+        <f>B8+C24</f>
+        <v>65002.49461538461</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="2"/>
+        <v>32501.247307692305</v>
+      </c>
+      <c r="F24" s="35">
+        <f t="shared" si="3"/>
+        <v>21667.498205128202</v>
+      </c>
+      <c r="G24" s="35">
+        <f t="shared" si="4"/>
+        <v>11818.635384615383</v>
+      </c>
+      <c r="H24" s="35">
+        <f t="shared" si="5"/>
+        <v>9286.0706593406594</v>
+      </c>
+      <c r="I24" s="35">
+        <f t="shared" si="6"/>
+        <v>6506.7562177562168</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="32"/>
+      <c r="B25" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="C25" s="38">
+        <f>B25*B8</f>
+        <v>11818.635384615385</v>
+      </c>
+      <c r="D25" s="38">
+        <f>B8+C25</f>
+        <v>70911.812307692308</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="2"/>
+        <v>35455.906153846154</v>
+      </c>
+      <c r="F25" s="35">
+        <f t="shared" si="3"/>
+        <v>23637.27076923077</v>
+      </c>
+      <c r="G25" s="35">
+        <f>D25/5.5</f>
+        <v>12893.056783216784</v>
+      </c>
+      <c r="H25" s="35">
+        <f t="shared" si="5"/>
+        <v>10130.258901098901</v>
+      </c>
+      <c r="I25" s="35">
+        <f t="shared" si="6"/>
+        <v>7098.2795102795099</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34">
+        <v>2</v>
+      </c>
+      <c r="F28" s="34">
+        <v>3</v>
+      </c>
+      <c r="G28" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="H28" s="34">
+        <v>7</v>
+      </c>
+      <c r="I28" s="36">
+        <v>9.99</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="40">
+        <f>E22+(E22-(E22*D11))</f>
+        <v>30137.520230769231</v>
+      </c>
+      <c r="F29" s="40">
+        <f>F22+(F22-(F22*D12))</f>
+        <v>25571.229292192838</v>
+      </c>
+      <c r="G29" s="40">
+        <f>G22+(G22-(G22*D13))</f>
+        <v>16438.647398601399</v>
+      </c>
+      <c r="H29" s="40">
+        <f>H22+(H22-(H22*D14))</f>
+        <v>15264.458301049675</v>
+      </c>
+      <c r="I29" s="40">
+        <f>I22+(I22-(I22*D15))</f>
+        <v>11518.571750223247</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="32"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="40">
+        <f>E23+(E23-(E23*D11))</f>
+        <v>31023.917884615385</v>
+      </c>
+      <c r="F30" s="40">
+        <f>F23+(F23-(F23*D12))</f>
+        <v>26323.324271374979</v>
+      </c>
+      <c r="G30" s="40">
+        <f>G23+(G23-(G23*D13))</f>
+        <v>16922.137027972029</v>
+      </c>
+      <c r="H30" s="40">
+        <f>H23+(H23-(H23*D14))</f>
+        <v>15713.412956962902</v>
+      </c>
+      <c r="I30" s="40">
+        <f>I23+(I23-(I23*D15))</f>
+        <v>11857.353272288638</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="40">
+        <f>E24+(E24-(E24*D11))</f>
+        <v>32501.247307692305</v>
+      </c>
+      <c r="F31" s="40">
+        <f>F24+(F24-(F24*D12))</f>
+        <v>27576.81590334521</v>
+      </c>
+      <c r="G31" s="40">
+        <f>G24+(G24-(G24*D13))</f>
+        <v>17727.953076923077</v>
+      </c>
+      <c r="H31" s="40">
+        <f>H24+(H24-(H24*D14))</f>
+        <v>16461.670716818277</v>
+      </c>
+      <c r="I31" s="40">
+        <f>I24+(I24-(I24*D15))</f>
+        <v>12421.989142397619</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="40">
+        <f>E25+(E25-(E25*D11))</f>
+        <v>35455.906153846154</v>
+      </c>
+      <c r="F32" s="40">
+        <f>F25+(F25-(F25*D12))</f>
+        <v>30083.799167285692</v>
+      </c>
+      <c r="G32" s="40">
+        <f>G25+(G25-(G25*D13))</f>
+        <v>19339.585174825173</v>
+      </c>
+      <c r="H32" s="40">
+        <f>H25+(H25-(H25*D14))</f>
+        <v>17958.186236529033</v>
+      </c>
+      <c r="I32" s="40">
+        <f>I25+(I25-(I25*D15))</f>
+        <v>13551.260882615585</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="31">
+        <v>1000000</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="31">
+        <v>50000</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" ht="16" thickBot="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="43"/>
+      <c r="B37" s="44">
+        <v>2015</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45">
+        <v>2016</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="1:11" ht="16" thickBot="1">
+      <c r="A38" s="43"/>
+      <c r="B38" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5125</v>
+      </c>
+      <c r="C39" s="51">
+        <v>5125</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5125</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5125</v>
+      </c>
+      <c r="F39" s="3">
+        <f>5125+(5125*15%)</f>
+        <v>5893.75</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ref="G39:H39" si="7">5125+(5125*15%)</f>
+        <v>5893.75</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="7"/>
+        <v>5893.75</v>
+      </c>
+      <c r="I39" s="3">
+        <f>5125+(5125*15%)</f>
+        <v>5893.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="10">
+        <f>B39*5.5</f>
+        <v>28187.5</v>
+      </c>
+      <c r="C40" s="52">
+        <f t="shared" ref="C40:I40" si="8">C39*5.5</f>
+        <v>28187.5</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="8"/>
+        <v>28187.5</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="8"/>
+        <v>28187.5</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="8"/>
+        <v>32415.625</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="8"/>
+        <v>32415.625</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="8"/>
+        <v>32415.625</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="8"/>
+        <v>32415.625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="53">
+        <f>SUM(B40:C40)</f>
+        <v>56375</v>
+      </c>
+      <c r="D41" s="42">
+        <f>SUM(B40:D40)</f>
+        <v>84562.5</v>
+      </c>
+      <c r="E41" s="42">
+        <f>SUM(B40:E40)</f>
+        <v>112750</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="42">
+        <f>SUM(F40:I40)</f>
+        <v>129662.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="10">
+        <f>45000+(45000*(16.86/100)*(26/52))+(6*632.25)</f>
+        <v>52587</v>
+      </c>
+      <c r="C42" s="52">
+        <f>B42+(4*632.25)</f>
+        <v>55116</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" ref="D42:E42" si="9">C42+(4*632.25)</f>
+        <v>57645</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="9"/>
+        <v>60174</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="10">
+        <f>C41-C42</f>
+        <v>1259</v>
+      </c>
+      <c r="D43" s="10">
+        <f>C43+D40</f>
+        <v>29446.5</v>
+      </c>
+      <c r="E43" s="10">
+        <f>D43+E40</f>
+        <v>57634</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>